--- a/biology/Écologie/Forêts_humides_du_Napo/Forêts_humides_du_Napo.xlsx
+++ b/biology/Écologie/Forêts_humides_du_Napo/Forêts_humides_du_Napo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_humides_du_Napo</t>
+          <t>Forêts_humides_du_Napo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts humides du Napo forment une écorégion terrestre définie par le Fonds mondial pour la nature (WWF), qui se situe autour du bassin du Río Napo en Amazonie, entre l'Équateur, le Nord du Pérou et le Sud de la Colombie. Elle appartient au biome des forêts de feuillus humides tropicales et subtropicales dans l'écozone néotropicale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_humides_du_Napo</t>
+          <t>Forêts_humides_du_Napo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
